--- a/Schedule Calculator Pro/bin/Розклад 2 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Розклад 2 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C9FE616-7A28-4259-8BD2-E974BD37ADDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44C3BFBD-288F-4A26-B326-A178D9808BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{E69744DF-55E5-492F-B401-3BE70EC0F5A0}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{24C3BB39-48ED-44CF-9CF3-BBC9BC8B0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -906,7 +906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC5FB41-8820-44EE-9A90-0281D182EE5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8BF296-956A-43E1-8F61-45A51C710A91}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1102,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="10">
-        <v>409</v>
+        <v>112</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>15</v>
@@ -1120,7 +1120,7 @@
         <v>71</v>
       </c>
       <c r="V3" s="10">
-        <v>217</v>
+        <v>411</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>80</v>
@@ -1129,7 +1129,7 @@
         <v>81</v>
       </c>
       <c r="Y3" s="11">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
@@ -1229,7 +1229,7 @@
         <v>63</v>
       </c>
       <c r="S4" s="13">
-        <v>302</v>
+        <v>153</v>
       </c>
       <c r="T4" s="13" t="s">
         <v>70</v>
@@ -1443,7 +1443,7 @@
         <v>71</v>
       </c>
       <c r="Y6" s="14">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
@@ -1498,7 +1498,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="13">
-        <v>403</v>
+        <v>111</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>9</v>
@@ -1525,7 +1525,7 @@
         <v>56</v>
       </c>
       <c r="M7" s="13">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -1617,7 +1617,7 @@
         <v>34</v>
       </c>
       <c r="S8" s="15">
-        <v>311</v>
+        <v>122</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
@@ -1725,7 +1725,7 @@
         <v>63</v>
       </c>
       <c r="S9" s="10">
-        <v>416</v>
+        <v>302</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>74</v>
@@ -1743,7 +1743,7 @@
         <v>71</v>
       </c>
       <c r="Y9" s="11">
-        <v>301</v>
+        <v>112</v>
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -1861,7 +1861,7 @@
         <v>81</v>
       </c>
       <c r="Y10" s="14">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -1925,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="15">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>40</v>
@@ -1979,7 +1979,7 @@
         <v>71</v>
       </c>
       <c r="Y11" s="17">
-        <v>314</v>
+        <v>208</v>
       </c>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
@@ -2036,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="10">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>15</v>
@@ -2063,7 +2063,7 @@
         <v>19</v>
       </c>
       <c r="M12" s="10">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>64</v>
@@ -2099,7 +2099,7 @@
         <v>33</v>
       </c>
       <c r="Y12" s="11">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -2163,7 +2163,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="13">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>3</v>
@@ -2190,7 +2190,7 @@
         <v>23</v>
       </c>
       <c r="P13" s="13">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q13" s="13" t="s">
         <v>13</v>
@@ -2217,7 +2217,7 @@
         <v>84</v>
       </c>
       <c r="Y13" s="14">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -2355,7 +2355,7 @@
         <v>35</v>
       </c>
       <c r="G15" s="13">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>45</v>
@@ -2462,7 +2462,7 @@
         <v>46</v>
       </c>
       <c r="J16" s="13">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -2577,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="Y17" s="17">
-        <v>301</v>
+        <v>117</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -2634,7 +2634,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="10">
-        <v>311</v>
+        <v>416</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>13</v>
@@ -2697,7 +2697,7 @@
         <v>84</v>
       </c>
       <c r="Y18" s="11">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -2815,7 +2815,7 @@
         <v>14</v>
       </c>
       <c r="Y19" s="14">
-        <v>108</v>
+        <v>317</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -2883,7 +2883,7 @@
         <v>34</v>
       </c>
       <c r="S20" s="13">
-        <v>403</v>
+        <v>216</v>
       </c>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -2971,7 +2971,7 @@
         <v>27</v>
       </c>
       <c r="M21" s="13">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="N21" s="13" t="s">
         <v>18</v>
@@ -3063,7 +3063,7 @@
         <v>34</v>
       </c>
       <c r="S22" s="13">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -3202,7 +3202,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="10">
-        <v>311</v>
+        <v>104</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>28</v>
@@ -3211,7 +3211,7 @@
         <v>29</v>
       </c>
       <c r="G24" s="10">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>49</v>
@@ -3459,7 +3459,7 @@
         <v>19</v>
       </c>
       <c r="Y26" s="14">
-        <v>318</v>
+        <v>717</v>
       </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
